--- a/Details_2.xlsx
+++ b/Details_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="188">
   <si>
     <t>Opening Hours (based on last admission time)</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Ratings (26 Feb, based on trip advisor and expert opinion)</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Occasion Tag</t>
   </si>
   <si>
@@ -528,61 +525,112 @@
     <t>newyear</t>
   </si>
   <si>
-    <t>student family</t>
-  </si>
-  <si>
-    <t>Asia group shopping</t>
-  </si>
-  <si>
-    <t>Europe culture</t>
-  </si>
-  <si>
-    <t>Europe student culture</t>
-  </si>
-  <si>
-    <t>Indian family student nature</t>
-  </si>
-  <si>
-    <t>Indian family nature</t>
-  </si>
-  <si>
-    <t>Indian group family couple landmarks</t>
-  </si>
-  <si>
-    <t>Indian group couple nature landmarks</t>
-  </si>
-  <si>
-    <t>Indian group couple landmarks</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
-    <t>Indian family nature food</t>
-  </si>
-  <si>
-    <t>Europe student culture food</t>
-  </si>
-  <si>
-    <t>Asia group shopping food</t>
-  </si>
-  <si>
-    <t>student family education</t>
-  </si>
-  <si>
-    <t>Europe student education</t>
-  </si>
-  <si>
-    <t>Europe education</t>
-  </si>
-  <si>
-    <t>Indian group couple culture landmarks education</t>
-  </si>
-  <si>
     <t>drinking</t>
   </si>
   <si>
     <t>Fact rules</t>
+  </si>
+  <si>
+    <t>food drinking</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>31 Dec - 1 Jan</t>
+  </si>
+  <si>
+    <t>Country Tag</t>
+  </si>
+  <si>
+    <t>Activity Tag</t>
+  </si>
+  <si>
+    <t>Companion Tag</t>
+  </si>
+  <si>
+    <t>10 July - 17 July</t>
+  </si>
+  <si>
+    <t>8 Feb - 19 Feb</t>
+  </si>
+  <si>
+    <t>19 Dec - 25 Dec</t>
+  </si>
+  <si>
+    <t>3 Nov - 10 Nov</t>
+  </si>
+  <si>
+    <t>Europe Asia Indian</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>group family alone couple student</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>group alone couple</t>
+  </si>
+  <si>
+    <t>family student</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group family couple </t>
+  </si>
+  <si>
+    <t>group couple student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group couple </t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shopping food</t>
+  </si>
+  <si>
+    <t>landmarks</t>
+  </si>
+  <si>
+    <t>landmarks education</t>
+  </si>
+  <si>
+    <t>nature landmarks</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>culture food</t>
+  </si>
+  <si>
+    <t>nature food</t>
   </si>
 </sst>
 </file>
@@ -710,7 +758,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -746,6 +794,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -753,6 +811,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1041,30 +1107,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="41.109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="92.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="92.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="55.2">
+    <row r="1" spans="1:15" ht="55.2">
       <c r="A1" s="10" t="s">
         <v>103</v>
       </c>
@@ -1087,22 +1156,31 @@
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="L1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1125,21 +1203,28 @@
         <v>1</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" t="str">
-        <f>"(cur_fact (fact " &amp; B2 &amp; ") (cf 0.5) (time " &amp; I2 &amp; ") (budget " &amp; J2 &amp; " ) (tag " &amp; K2 &amp; " )) (cur_goal (goal " &amp; B2 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact SAM) (cf 0.5) (time day) (budget 1 ) (tag Europe education )) (cur_goal (goal SAM) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O2" s="12" t="str">
+        <f>"(cur_fact (fact " &amp; B2 &amp; ") (cf 0.5) (time " &amp; J2 &amp; ") (budget " &amp; K2 &amp; " ) (tag " &amp; I2 &amp; " " &amp; L2 &amp; " " &amp; M2 &amp; " " &amp;  N2 &amp; " )) (cur_goal (goal " &amp; B2 &amp; ") (cf 0.5)(rank " &amp; D2 &amp;"))"</f>
+        <v>(cur_fact (fact SAM) (cf 0.5) (time day) (budget 1 ) (tag  Europe student education )) (cur_goal (goal SAM) (cf 0.5)(rank 72))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="11" t="s">
         <v>133</v>
       </c>
@@ -1162,21 +1247,28 @@
         <v>2</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" t="str">
-        <f>"(cur_fact (fact " &amp; B3 &amp; ") (cf 0.5) (time " &amp; I3 &amp; ") (budget " &amp; J3 &amp; " ) (tag " &amp; K3 &amp; " )) (cur_goal (goal " &amp; B3 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact ASM) (cf 0.5) (time day) (budget 2 ) (tag Europe education )) (cur_goal (goal ASM) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f t="shared" ref="O3:O27" si="0">"(cur_fact (fact " &amp; B3 &amp; ") (cf 0.5) (time " &amp; J3 &amp; ") (budget " &amp; K3 &amp; " ) (tag " &amp; I3 &amp; " " &amp; L3 &amp; " " &amp; M3 &amp; " " &amp;  N3 &amp; " )) (cur_goal (goal " &amp; B3 &amp; ") (cf 0.5)(rank " &amp; D3 &amp;"))"</f>
+        <v>(cur_fact (fact ASM) (cf 0.5) (time day) (budget 2 ) (tag  Europe student education )) (cur_goal (goal ASM) (cf 0.5)(rank 77))</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>132</v>
       </c>
@@ -1199,23 +1291,32 @@
         <v>3</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="11">
+        <v>147</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="11">
         <v>2</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L4" t="str">
-        <f>"(cur_fact (fact " &amp; B4 &amp; ") (cf 0.5) (time " &amp; I4 &amp; ") (budget " &amp; J4 &amp; " ) (tag " &amp; K4 &amp; " )) (cur_goal (goal " &amp; B4 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact ORC) (cf 0.5) (time day) (budget 2 ) (tag Asia group shopping )) (cur_goal (goal ORC) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact ORC) (cf 0.5) (time day) (budget 2 ) (tag christmas Asia group shopping )) (cur_goal (goal ORC) (cf 0.5)(rank 78))</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1325,7 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13">
-        <v>70</v>
+        <v>70.5</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>80</v>
@@ -1236,21 +1337,28 @@
         <v>4</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="11">
         <v>1</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" t="str">
-        <f>"(cur_fact (fact " &amp; B5 &amp; ") (cf 0.5) (time " &amp; I5 &amp; ") (budget " &amp; J5 &amp; " ) (tag " &amp; K5 &amp; " )) (cur_goal (goal " &amp; B5 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact BUG) (cf 0.5) (time day) (budget 1 ) (tag Asia group shopping food )) (cur_goal (goal BUG) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact BUG) (cf 0.5) (time day) (budget 1 ) (tag  Asia group shopping food )) (cur_goal (goal BUG) (cf 0.5)(rank 70.5))</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="11" t="s">
         <v>51</v>
       </c>
@@ -1273,21 +1381,28 @@
         <v>5</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="11">
         <v>1</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" t="str">
-        <f>"(cur_fact (fact " &amp; B6 &amp; ") (cf 0.5) (time " &amp; I6 &amp; ") (budget " &amp; J6 &amp; " ) (tag " &amp; K6 &amp; " )) (cur_goal (goal " &amp; B6 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact MUS) (cf 0.5) (time day night) (budget 1 ) (tag Asia group shopping )) (cur_goal (goal MUS) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact MUS) (cf 0.5) (time day night) (budget 1 ) (tag  Asia group shopping )) (cur_goal (goal MUS) (cf 0.5)(rank 65))</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24">
       <c r="A7" s="11" t="s">
         <v>52</v>
       </c>
@@ -1296,7 +1411,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <v>84</v>
+        <v>84.5</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>91</v>
@@ -1306,23 +1421,32 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="11">
+        <v>151</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="11">
         <v>3</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="L7" t="str">
-        <f>"(cur_fact (fact " &amp; B7 &amp; ") (cf 0.5) (time " &amp; I7 &amp; ") (budget " &amp; J7 &amp; " ) (tag " &amp; K7 &amp; " )) (cur_goal (goal " &amp; B7 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact SEN) (cf 0.5) (time day night) (budget 3 ) (tag Indian group family couple landmarks )) (cur_goal (goal SEN) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="24">
+      <c r="L7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact SEN) (cf 0.5) (time day night) (budget 3 ) (tag newyear Indian group family couple  landmarks )) (cur_goal (goal SEN) (cf 0.5)(rank 84.5))</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24">
       <c r="A8" s="11" t="s">
         <v>53</v>
       </c>
@@ -1333,7 +1457,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="13">
-        <v>85</v>
+        <v>85.5</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>83</v>
@@ -1345,21 +1469,28 @@
         <v>134</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="11">
         <v>1</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" t="str">
-        <f>"(cur_fact (fact " &amp; B8 &amp; ") (cf 0.5) (time " &amp; I8 &amp; ") (budget " &amp; J8 &amp; " ) (tag " &amp; K8 &amp; " )) (cur_goal (goal " &amp; B8 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact URA) (cf 0.5) (time day) (budget 1 ) (tag Indian group couple culture landmarks education )) (cur_goal (goal URA) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact URA) (cf 0.5) (time day) (budget 1 ) (tag  Indian group couple student landmarks education )) (cur_goal (goal URA) (cf 0.5)(rank 85.5))</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="11" t="s">
         <v>54</v>
       </c>
@@ -1370,7 +1501,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="13">
-        <v>92</v>
+        <v>92.5</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>85</v>
@@ -1382,21 +1513,28 @@
         <v>7</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="11">
         <v>2</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"(cur_fact (fact " &amp; B9 &amp; ") (cf 0.5) (time " &amp; I9 &amp; ") (budget " &amp; J9 &amp; " ) (tag " &amp; K9 &amp; " )) (cur_goal (goal " &amp; B9 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact GBB) (cf 0.5) (time day night) (budget 2 ) (tag Indian group couple nature landmarks )) (cur_goal (goal GBB) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact GBB) (cf 0.5) (time day night) (budget 2 ) (tag  Indian group couple  nature landmarks )) (cur_goal (goal GBB) (cf 0.5)(rank 92.5))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="11" t="s">
         <v>87</v>
       </c>
@@ -1419,21 +1557,28 @@
         <v>8</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="11">
         <v>2</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" t="str">
-        <f>"(cur_fact (fact " &amp; B10 &amp; ") (cf 0.5) (time " &amp; I10 &amp; ") (budget " &amp; J10 &amp; " ) (tag " &amp; K10 &amp; " )) (cur_goal (goal " &amp; B10 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact SGF) (cf 0.5) (time day night) (budget 2 ) (tag Indian group couple landmarks )) (cur_goal (goal SGF) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact SGF) (cf 0.5) (time day night) (budget 2 ) (tag  Indian group couple  landmarks )) (cur_goal (goal SGF) (cf 0.5)(rank 84))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="11" t="s">
         <v>55</v>
       </c>
@@ -1456,21 +1601,28 @@
         <v>9</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" s="11">
         <v>1</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" t="str">
-        <f>"(cur_fact (fact " &amp; B11 &amp; ") (cf 0.5) (time " &amp; I11 &amp; ") (budget " &amp; J11 &amp; " ) (tag " &amp; K11 &amp; " )) (cur_goal (goal " &amp; B11 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact MER) (cf 0.5) (time day night) (budget 1 ) (tag Indian group couple landmarks )) (cur_goal (goal MER) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact MER) (cf 0.5) (time day night) (budget 1 ) (tag  Indian group couple  landmarks )) (cur_goal (goal MER) (cf 0.5)(rank 76))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="24">
       <c r="A12" s="11" t="s">
         <v>56</v>
       </c>
@@ -1493,21 +1645,28 @@
         <v>10</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="11">
         <v>2</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" t="str">
-        <f>"(cur_fact (fact " &amp; B12 &amp; ") (cf 0.5) (time " &amp; I12 &amp; ") (budget " &amp; J12 &amp; " ) (tag " &amp; K12 &amp; " )) (cur_goal (goal " &amp; B12 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact ZOO) (cf 0.5) (time day) (budget 2 ) (tag Indian family student nature )) (cur_goal (goal ZOO) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact ZOO) (cf 0.5) (time day) (budget 2 ) (tag  Indian family student nature )) (cur_goal (goal ZOO) (cf 0.5)(rank 92))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="24">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1530,21 +1689,28 @@
         <v>11</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="11">
         <v>1</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" t="str">
-        <f>"(cur_fact (fact " &amp; B13 &amp; ") (cf 0.5) (time " &amp; I13 &amp; ") (budget " &amp; J13 &amp; " ) (tag " &amp; K13 &amp; " )) (cur_goal (goal " &amp; B13 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact SGB) (cf 0.5) (time day) (budget 1 ) (tag Indian family nature )) (cur_goal (goal SGB) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact SGB) (cf 0.5) (time day) (budget 1 ) (tag  Indian family student nature )) (cur_goal (goal SGB) (cf 0.5)(rank 88))</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="24">
       <c r="A14" s="11" t="s">
         <v>58</v>
       </c>
@@ -1567,21 +1733,28 @@
         <v>12</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" t="str">
-        <f>"(cur_fact (fact " &amp; B14 &amp; ") (cf 0.5) (time " &amp; I14 &amp; ") (budget " &amp; J14 &amp; " ) (tag " &amp; K14 &amp; " )) (cur_goal (goal " &amp; B14 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact BOT) (cf 0.5) (time day) (budget 1 ) (tag Indian family nature )) (cur_goal (goal BOT) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60">
+      <c r="L14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact BOT) (cf 0.5) (time day) (budget 1 ) (tag  Indian family student nature )) (cur_goal (goal BOT) (cf 0.5)(rank 94))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="36">
       <c r="A15" s="11" t="s">
         <v>100</v>
       </c>
@@ -1604,21 +1777,28 @@
         <v>135</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" s="11">
         <v>2</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="str">
-        <f>"(cur_fact (fact " &amp; B15 &amp; ") (cf 0.5) (time " &amp; I15 &amp; ") (budget " &amp; J15 &amp; " ) (tag " &amp; K15 &amp; " )) (cur_goal (goal " &amp; B15 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact STJ) (cf 0.5) (time night) (budget 2 ) (tag drinking )) (cur_goal (goal STJ) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact STJ) (cf 0.5) (time night) (budget 2 ) (tag  Europe Asia Indian group alone couple drinking )) (cur_goal (goal STJ) (cf 0.5)(rank 60))</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="36">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -1639,21 +1819,28 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="11">
         <v>2</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" t="str">
-        <f>"(cur_fact (fact " &amp; B16 &amp; ") (cf 0.5) (time " &amp; I16 &amp; ") (budget " &amp; J16 &amp; " ) (tag " &amp; K16 &amp; " )) (cur_goal (goal " &amp; B16 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact ZOK) (cf 0.5) (time night) (budget 2 ) (tag drinking )) (cur_goal (goal ZOK) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact ZOK) (cf 0.5) (time night) (budget 2 ) (tag  Europe Asia Indian group alone couple drinking )) (cur_goal (goal ZOK) (cf 0.5)(rank 63))</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="36">
       <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
@@ -1674,21 +1861,28 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="11">
         <v>2</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" t="str">
-        <f>"(cur_fact (fact " &amp; B17 &amp; ") (cf 0.5) (time " &amp; I17 &amp; ") (budget " &amp; J17 &amp; " ) (tag " &amp; K17 &amp; " )) (cur_goal (goal " &amp; B17 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact CKQ) (cf 0.5) (time night) (budget 2 ) (tag food )) (cur_goal (goal CKQ) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact CKQ) (cf 0.5) (time day night) (budget 2 ) (tag  Europe Asia Indian group alone couple food drinking )) (cur_goal (goal CKQ) (cf 0.5)(rank 87))</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="36">
       <c r="A18" s="11" t="s">
         <v>61</v>
       </c>
@@ -1707,21 +1901,28 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="L18" t="str">
-        <f>"(cur_fact (fact " &amp; B18 &amp; ") (cf 0.5) (time " &amp; I18 &amp; ") (budget " &amp; J18 &amp; " ) (tag " &amp; K18 &amp; " )) (cur_goal (goal " &amp; B18 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact TOA) (cf 0.5) (time day) (budget 1 ) (tag Europe culture )) (cur_goal (goal TOA) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact TOA) (cf 0.5) (time night) (budget 1 ) (tag  Europe group family alone couple student culture )) (cur_goal (goal TOA) (cf 0.5)(rank 75))</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="36">
       <c r="A19" s="11" t="s">
         <v>62</v>
       </c>
@@ -1742,21 +1943,28 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="11">
         <v>1</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="L19" t="str">
-        <f>"(cur_fact (fact " &amp; B19 &amp; ") (cf 0.5) (time " &amp; I19 &amp; ") (budget " &amp; J19 &amp; " ) (tag " &amp; K19 &amp; " )) (cur_goal (goal " &amp; B19 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact TBR) (cf 0.5) (time day) (budget 1 ) (tag Europe culture )) (cur_goal (goal TBR) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact TBR) (cf 0.5) (time day) (budget 1 ) (tag  Europe group family alone couple student culture )) (cur_goal (goal TBR) (cf 0.5)(rank 81))</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="11" t="s">
         <v>63</v>
       </c>
@@ -1777,23 +1985,32 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="11">
+        <v>150</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="11">
         <v>1</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L20" t="str">
-        <f>"(cur_fact (fact " &amp; B20 &amp; ") (cf 0.5) (time " &amp; I20 &amp; ") (budget " &amp; J20 &amp; " ) (tag " &amp; K20 &amp; " )) (cur_goal (goal " &amp; B20 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact KPG) (cf 0.5) (time day) (budget 1 ) (tag Europe student culture )) (cur_goal (goal KPG) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact KPG) (cf 0.5) (time day) (budget 1 ) (tag harirayapuasa Europe student culture )) (cur_goal (goal KPG) (cf 0.5)(rank 85))</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="11" t="s">
         <v>64</v>
       </c>
@@ -1814,23 +2031,32 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J21" s="11">
+        <v>148</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="11">
         <v>1</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" t="str">
-        <f>"(cur_fact (fact " &amp; B21 &amp; ") (cf 0.5) (time " &amp; I21 &amp; ") (budget " &amp; J21 &amp; " ) (tag " &amp; K21 &amp; " )) (cur_goal (goal " &amp; B21 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact CHT) (cf 0.5) (time day) (budget 1 ) (tag Europe student culture food )) (cur_goal (goal CHT) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact CHT) (cf 0.5) (time day) (budget 1 ) (tag lunarnewyear Europe student culture food )) (cur_goal (goal CHT) (cf 0.5)(rank 80))</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="11" t="s">
         <v>65</v>
       </c>
@@ -1851,23 +2077,32 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J22" s="11">
+        <v>149</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K22" s="11">
         <v>1</v>
       </c>
-      <c r="K22" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" t="str">
-        <f>"(cur_fact (fact " &amp; B22 &amp; ") (cf 0.5) (time " &amp; I22 &amp; ") (budget " &amp; J22 &amp; " ) (tag " &amp; K22 &amp; " )) (cur_goal (goal " &amp; B22 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact LTI) (cf 0.5) (time day) (budget 1 ) (tag Europe student culture )) (cur_goal (goal LTI) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact LTI) (cf 0.5) (time day) (budget 1 ) (tag deepavali Europe student culture )) (cur_goal (goal LTI) (cf 0.5)(rank 66))</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="11" t="s">
         <v>66</v>
       </c>
@@ -1890,21 +2125,28 @@
         <v>17</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="11">
         <v>1</v>
       </c>
-      <c r="K23" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" t="str">
-        <f>"(cur_fact (fact " &amp; B23 &amp; ") (cf 0.5) (time " &amp; I23 &amp; ") (budget " &amp; J23 &amp; " ) (tag " &amp; K23 &amp; " )) (cur_goal (goal " &amp; B23 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact CGM) (cf 0.5) (time day) (budget 1 ) (tag Europe student education )) (cur_goal (goal CGM) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="L23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact CGM) (cf 0.5) (time day) (budget 1 ) (tag  Europe student education )) (cur_goal (goal CGM) (cf 0.5)(rank 91))</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="36">
       <c r="A24" s="11" t="s">
         <v>67</v>
       </c>
@@ -1927,21 +2169,28 @@
         <v>16</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="11">
         <v>1</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" t="str">
-        <f>"(cur_fact (fact " &amp; B24 &amp; ") (cf 0.5) (time " &amp; I24 &amp; ") (budget " &amp; J24 &amp; " ) (tag " &amp; K24 &amp; " )) (cur_goal (goal " &amp; B24 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact SCC) (cf 0.5) (time day) (budget 1 ) (tag student family education )) (cur_goal (goal SCC) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="60">
+      <c r="L24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="O24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact SCC) (cf 0.5) (time day) (budget 1 ) (tag  Europe Asia Indian family student education )) (cur_goal (goal SCC) (cf 0.5)(rank 73))</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="48">
       <c r="A25" s="11" t="s">
         <v>68</v>
       </c>
@@ -1964,21 +2213,26 @@
         <v>136</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="I25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="11">
         <v>2</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" t="str">
-        <f>"(cur_fact (fact " &amp; B25 &amp; ") (cf 0.5) (time " &amp; I25 &amp; ") (budget " &amp; J25 &amp; " ) (tag " &amp; K25 &amp; " )) (cur_goal (goal " &amp; B25 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact WWW) (cf 0.5) (time day) (budget 2 ) (tag student family )) (cur_goal (goal WWW) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact WWW) (cf 0.5) (time day) (budget 2 ) (tag  Europe Asia Indian family student  )) (cur_goal (goal WWW) (cf 0.5)(rank 68))</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="36">
       <c r="A26" s="11" t="s">
         <v>69</v>
       </c>
@@ -1999,21 +2253,28 @@
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="I26" s="11"/>
+      <c r="J26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="11">
         <v>1</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" t="str">
-        <f>"(cur_fact (fact " &amp; B26 &amp; ") (cf 0.5) (time " &amp; I26 &amp; ") (budget " &amp; J26 &amp; " ) (tag " &amp; K26 &amp; " )) (cur_goal (goal " &amp; B26 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact LPS) (cf 0.5) (time day night) (budget 1 ) (tag food )) (cur_goal (goal LPS) (cf 0.5))</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact LPS) (cf 0.5) (time day night) (budget 1 ) (tag  Europe Asia Indian group family alone couple student food )) (cur_goal (goal LPS) (cf 0.5)(rank 70))</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="11" t="s">
         <v>128</v>
       </c>
@@ -2034,19 +2295,46 @@
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="11">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="11">
         <v>2</v>
       </c>
-      <c r="K27" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="L27" t="str">
-        <f>"(cur_fact (fact " &amp; B27 &amp; ") (cf 0.5) (time " &amp; I27 &amp; ") (budget " &amp; J27 &amp; " ) (tag " &amp; K27 &amp; " )) (cur_goal (goal " &amp; B27 &amp; ") (cf 0.5))"</f>
-        <v>(cur_fact (fact ECP) (cf 0.5) (time day) (budget 2 ) (tag Indian family nature food )) (cur_goal (goal ECP) (cf 0.5))</v>
-      </c>
+      <c r="L27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>(cur_fact (fact ECP) (cf 0.5) (time day) (budget 2 ) (tag  Indian family nature food )) (cur_goal (goal ECP) (cf 0.5)(rank 82))</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="G30" s="12"/>
+      <c r="H30" s="21"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
